--- a/App_Data/reports/VersionBreakdown.xlsx
+++ b/App_Data/reports/VersionBreakdown.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" hidePivotFieldList="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="510" windowWidth="18855" windowHeight="7875"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <definedName name="NAME">Definitions!$B$4:$B$4</definedName>
     <definedName name="URL">Definitions!$B$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ hh:mm"/>
   </numFmts>
@@ -224,12 +224,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:pivotSource>
     <c:name>[VersionBreakdown.xlsx]Version!PivotTable5</c:name>
@@ -270,6 +285,7 @@
       <c:layout/>
       <c:areaChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -327,33 +343,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82655104"/>
-        <c:axId val="82656640"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137664512"/>
+        <c:axId val="93820544"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="82655104"/>
+        <c:axId val="137664512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82656640"/>
+        <c:crossAx val="93820544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82656640"/>
+        <c:axId val="93820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82655104"/>
+        <c:crossAx val="137664512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -361,9 +392,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -411,7 +444,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:pivotSource>
     <c:name>[VersionBreakdown.xlsx]Version!PivotTable5</c:name>
@@ -502,7 +545,9 @@
           <c:showLegendKey val="1"/>
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
           <c:separator>|</c:separator>
         </c:dLbl>
       </c:pivotFmt>
@@ -525,15 +570,30 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
+      <c:rotX val="15"/>
       <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -575,8 +635,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -623,7 +687,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -639,9 +709,11 @@
           <c:h val="0.33197012346103438"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -755,7 +827,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41565.992352199071" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Author" refreshedDate="41565.992352199071" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource name="=data"/>
   </cacheSource>
@@ -858,6 +930,11 @@
       <sharedItems/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -939,7 +1016,7 @@
     <d v="2013-09-11T00:00:00"/>
     <x v="0"/>
     <s v="20h 0m"/>
-    <s v="&#10;Send notification that portal will be down"/>
+    <s v="_x000a_Send notification that portal will be down"/>
     <n v="1"/>
     <s v=""/>
   </r>
@@ -1001,13 +1078,13 @@
     <s v="16h 0m"/>
     <s v=""/>
     <n v="1"/>
-    <s v="&#10;This is not a decision for account management -- I have escalated to the board."/>
+    <s v="_x000a_This is not a decision for account management -- I have escalated to the board."/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Status">
   <location ref="C12:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="5" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField axis="axisPage" dataField="1" showAll="0">
@@ -1144,11 +1221,6 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -2000,14 +2072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:R17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8 D13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2148,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2243,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleSheetLayoutView="100" workbookViewId="0">
